--- a/Documents/projektnaplo.xlsx
+++ b/Documents/projektnaplo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\rpg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\rpg\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B30B347-6AC8-4ABC-B483-9336DFC14E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E451483D-7633-4072-A085-28ED57A31878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>Musketeer</t>
   </si>
   <si>
-    <t>Conquistadors</t>
-  </si>
-  <si>
     <t>Pikeman</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>effects</t>
+  </si>
+  <si>
+    <t>Conquistador</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,18 +592,30 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,20 +626,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -943,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -951,19 +949,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>0</v>
@@ -971,27 +969,27 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1004,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EDAB68-556B-4C76-82FE-04C9A343365F}">
   <dimension ref="B4:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1019,7 @@
   <sheetData>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1049,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
@@ -1062,13 +1060,13 @@
       <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="O6" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
+      <c r="O6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="24"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
@@ -1083,23 +1081,23 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
       <c r="R7"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -1110,11 +1108,11 @@
       <c r="H8" s="1">
         <v>3</v>
       </c>
-      <c r="O8" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="O8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
       <c r="R8"/>
       <c r="S8" s="5"/>
     </row>
@@ -1123,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
@@ -1136,13 +1134,13 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
@@ -1157,23 +1155,23 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="38">
+      <c r="B11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="26">
         <v>5</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38">
+      <c r="D11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26">
         <v>7</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="26">
         <v>5</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="26">
         <v>5</v>
       </c>
       <c r="O11" s="6"/>
@@ -1181,13 +1179,13 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1">
         <v>7</v>
@@ -1198,22 +1196,22 @@
       <c r="H12" s="1">
         <v>3</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="37"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12"/>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="O13" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1240,31 +1238,31 @@
   <sheetData>
     <row r="6" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
         <v>71</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>72</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>75</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1295,43 +1293,43 @@
   <sheetData>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
@@ -1358,7 +1356,7 @@
       </c>
       <c r="C8" s="14" t="str">
         <f>classes!D8</f>
-        <v>Conquistadors</v>
+        <v>Conquistador</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -1399,10 +1397,10 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -1410,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -1418,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -1426,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -1434,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
@@ -1442,15 +1440,15 @@
         <v>4</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -1458,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
@@ -1466,15 +1464,15 @@
         <v>1</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1482,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
@@ -1490,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A63123-B5A5-429E-BCEB-A505C9AF7916}">
   <dimension ref="C4:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1517,52 +1515,52 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="P4" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="26"/>
+      <c r="P4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="30"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" t="s">
-        <v>39</v>
-      </c>
       <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
         <v>43</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
         <v>40</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>41</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1601,7 @@
   <sheetData>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1627,28 +1625,28 @@
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P6" s="6">
         <v>0</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
@@ -1656,21 +1654,21 @@
         <v>1</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="P10" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="30"/>
+      <c r="P10" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P11" s="13">
         <v>0</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
@@ -1678,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
@@ -1688,24 +1686,24 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="17" spans="15:21" x14ac:dyDescent="0.3">
-      <c r="O17" s="29" t="s">
+      <c r="O17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="S17" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="S17" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
     </row>
     <row r="18" spans="15:21" x14ac:dyDescent="0.3">
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1731,16 +1729,16 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="6" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="D6" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
